--- a/docs/SCRUM/ProduktLog.xlsx
+++ b/docs/SCRUM/ProduktLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syddanskuni-my.sharepoint.com/personal/simot18_student_sdu_dk/Documents/SemesterProjekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D7466A-36F4-4FAE-BFDF-17C70B2027AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{F4D7466A-36F4-4FAE-BFDF-17C70B2027AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{3C7F1A4D-7752-40C0-AC51-B88DA77D2B13}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="27977" windowHeight="18720" xr2:uid="{289AF8C4-6669-4177-979C-FD117B8DC09C}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
-  <si>
-    <t>Product log</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>Arbejdsmængde</t>
   </si>
@@ -237,10 +234,19 @@
     <t>920 timer</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Pr person</t>
+  </si>
+  <si>
+    <t>Total rest. arbejdsmængde</t>
+  </si>
+  <si>
+    <t>Akronym</t>
+  </si>
+  <si>
+    <t>Betegnelse</t>
+  </si>
+  <si>
+    <t>Produkt log</t>
   </si>
 </sst>
 </file>
@@ -263,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +279,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -286,16 +304,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="40 % - Farve1" xfId="2" builtinId="31"/>
+    <cellStyle name="40 % - Farve4" xfId="3" builtinId="43"/>
     <cellStyle name="40 % - Farve6" xfId="1" builtinId="51"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -609,441 +636,458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2249B73E-AB70-4821-97D5-4C4669754102}">
-  <dimension ref="B3:N31"/>
+  <dimension ref="B3:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="21.15234375" customWidth="1"/>
+    <col min="2" max="2" width="22.84375" customWidth="1"/>
     <col min="3" max="3" width="18.4609375" customWidth="1"/>
-    <col min="4" max="4" width="17.15234375" customWidth="1"/>
-    <col min="5" max="5" width="17.69140625" customWidth="1"/>
+    <col min="4" max="4" width="15.921875" customWidth="1"/>
+    <col min="5" max="5" width="15.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="M4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1">
         <v>0.1283</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1">
         <v>9.9099999999999994E-2</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="N7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1">
         <v>9.3700000000000006E-2</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1">
         <v>9.1300000000000006E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9">
-        <v>8</v>
-      </c>
-      <c r="N9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1">
         <v>8.0399999999999999E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1">
         <v>6.7299999999999999E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1">
         <v>6.5500000000000003E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1">
         <v>6.4699999999999994E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1">
         <v>3.73E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1">
         <v>3.0200000000000001E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1">
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1">
         <v>2.8400000000000002E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1">
         <v>2.8400000000000002E-2</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1">
         <v>2.63E-2</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1">
         <v>2.18E-2</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="1">
         <v>2.0899999999999998E-2</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="1">
         <v>1.7299999999999999E-2</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="1">
         <v>1.49E-2</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1">
         <v>1.44E-2</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="1">
         <v>1.38E-2</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="1">
         <v>1.35E-2</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="1">
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="E31" t="s">
+      <c r="C31" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F31">
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32">
         <f>920/6</f>
         <v>153.33333333333334</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
